--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>2015.1.23</t>
-  </si>
-  <si>
-    <t>2015.1.24</t>
-  </si>
-  <si>
-    <t>2015.1.25</t>
   </si>
   <si>
     <t>2015.1.26</t>
@@ -510,37 +504,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>93382</v>
@@ -682,6 +676,15 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>94352</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -706,16 +709,6 @@
     <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -741,42 +734,42 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="v" sheetId="1" r:id="rId1"/>
     <sheet name="统计" sheetId="2" r:id="rId2"/>
-    <sheet name="均收" sheetId="3" r:id="rId3"/>
+    <sheet name="R" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,23 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胜率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,6 +141,186 @@
         <charset val="134"/>
       </rPr>
       <t>总</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.01.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>yRate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sRate</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指标</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +350,45 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,13 +396,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -504,214 +765,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>93382</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>93780</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>93780</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="B5">
         <v>94282</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>94356</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>90572</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>91691</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>92825</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>93416</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>93291</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>94006</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>94352</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -734,42 +1163,42 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -781,15 +1210,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,14 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>yRate</t>
     </r>
@@ -322,6 +314,22 @@
       </rPr>
       <t>指标</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结Yc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结Yc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结Sc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,6 +464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,12 +477,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,41 +773,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="36.75" customHeight="1" thickBot="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -807,25 +817,31 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -850,8 +866,14 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -876,8 +898,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -902,8 +930,14 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -928,8 +962,14 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -954,8 +994,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1006,8 +1058,14 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1090,14 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1122,14 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1154,14 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1110,18 +1186,51 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="B14">
+        <v>92871</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>259</v>
+      </c>
+      <c r="J14">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1138,8 +1247,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1228,6 +1228,33 @@
     <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>11</v>
+      </c>
+      <c r="B15">
+        <v>90178</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2939</v>
       </c>
     </row>
     <row r="16" spans="1:12">

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="v" sheetId="1" r:id="rId1"/>
     <sheet name="统计" sheetId="2" r:id="rId2"/>
     <sheet name="R" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,14 +236,6 @@
       </rPr>
       <t>S</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015.01.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,6 +324,18 @@
   </si>
   <si>
     <t>未结Sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="A1:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -788,25 +794,25 @@
     <row r="1" spans="1:12" ht="36.75" customHeight="1" thickBot="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7"/>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -817,16 +823,16 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -1287,9 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -1346,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1357,37 +1361,170 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>206</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>2015.02.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1486,10 +1490,39 @@
         <v>37</v>
       </c>
       <c r="H5">
-        <v>206</v>
+        <v>560</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>313</v>
+      </c>
+      <c r="H6">
+        <v>1097</v>
+      </c>
+      <c r="I6">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,9 @@
   <si>
     <t>2015.02.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.06</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1523,6 +1526,35 @@
       </c>
       <c r="I6">
         <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>849</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-705</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>2015.02.06</t>
+  </si>
+  <si>
+    <t>2015.02.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1357,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1555,6 +1559,35 @@
       </c>
       <c r="I7">
         <v>-705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>849</v>
+      </c>
+      <c r="H8">
+        <v>856</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,10 @@
   </si>
   <si>
     <t>2015.02.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1587,6 +1591,35 @@
         <v>856</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>849</v>
+      </c>
+      <c r="H9">
+        <v>1167</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,9 @@
   <si>
     <t>2015.02.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.11</t>
   </si>
 </sst>
 </file>
@@ -1365,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1620,6 +1623,35 @@
         <v>1167</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>849</v>
+      </c>
+      <c r="H10">
+        <v>1167</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>2015.02.11</t>
+  </si>
+  <si>
+    <t>2015.02.12</t>
   </si>
 </sst>
 </file>
@@ -1368,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1653,6 +1656,35 @@
       </c>
       <c r="I10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1500</v>
+      </c>
+      <c r="G11">
+        <v>849</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/统计.xlsx
+++ b/src/main/resources/统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>2015.1.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,18 @@
   </si>
   <si>
     <t>2015.02.12</t>
+  </si>
+  <si>
+    <t>2015.02.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.02.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1371,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1685,6 +1697,93 @@
       </c>
       <c r="I11">
         <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1500</v>
+      </c>
+      <c r="G12">
+        <v>849</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1500</v>
+      </c>
+      <c r="G13">
+        <v>849</v>
+      </c>
+      <c r="H13">
+        <v>290</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1500</v>
+      </c>
+      <c r="G14">
+        <v>1144</v>
+      </c>
+      <c r="H14">
+        <v>1389</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
